--- a/Discharge/Station4_2022-06-07_1158.xlsx
+++ b/Discharge/Station4_2022-06-07_1158.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06295181-A7FA-7248-81F1-55A9F85D7F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{06295181-A7FA-7248-81F1-55A9F85D7F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE0260D-D740-4778-BD3C-E812BF955F28}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="5400" windowWidth="26840" windowHeight="14780" xr2:uid="{E511E5FD-8A1D-EC4C-BFDB-FAEC3B888D45}"/>
+    <workbookView xWindow="1900" yWindow="1070" windowWidth="14640" windowHeight="9730" xr2:uid="{E511E5FD-8A1D-EC4C-BFDB-FAEC3B888D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -53,6 +52,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -412,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7BECE9-9E89-5F41-A01C-8E6EF2778B07}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +444,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>30</v>
       </c>
@@ -459,8 +476,24 @@
         <f>SUM(E2:E20)</f>
         <v>2.8125000000000003E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G11)</f>
+        <v>2.6249999999999999E-2</v>
+      </c>
+      <c r="J2">
+        <f>H2</f>
+        <v>2.6249999999999999E-2</v>
+      </c>
+      <c r="K2">
+        <f>F2</f>
+        <v>2.8125000000000003E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>35</v>
       </c>
@@ -471,16 +504,20 @@
         <v>0.11</v>
       </c>
       <c r="D3">
-        <f>(A3/100+(A4/100-A3/100)/2)</f>
+        <f t="shared" ref="D3:D8" si="0">(A3/100+(A4/100-A3/100)/2)</f>
         <v>0.375</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">(D3-D2)*(B3/100)*C3</f>
+        <f t="shared" ref="E3:E8" si="1">(D3-D2)*(B3/100)*C3</f>
         <v>4.1250000000000011E-4</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>3.7500000000000007E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>40</v>
       </c>
@@ -491,16 +528,20 @@
         <v>0.2</v>
       </c>
       <c r="D4">
-        <f>(A4/100+(A5/100-A4/100)/2)</f>
+        <f t="shared" si="0"/>
         <v>0.47500000000000003</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2000000000000005E-3</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="2">(D4-D3)*B4/100</f>
+        <v>6.0000000000000019E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>55</v>
       </c>
@@ -511,16 +552,20 @@
         <v>0.08</v>
       </c>
       <c r="D5">
-        <f>(A5/100+(A6/100-A5/100)/2)</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0000000000000027E-4</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>7.5000000000000032E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>65</v>
       </c>
@@ -531,16 +576,20 @@
         <v>0.09</v>
       </c>
       <c r="D6">
-        <f>(A6/100+(A7/100-A6/100)/2)</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3999999999999925E-4</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999923E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>75</v>
       </c>
@@ -551,16 +600,20 @@
         <v>0.02</v>
       </c>
       <c r="D7">
-        <f>(A7/100+(A8/100-A7/100)/2)</f>
+        <f t="shared" si="0"/>
         <v>0.77500000000000002</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0000000000000056E-5</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>80</v>
       </c>
@@ -571,16 +624,20 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>(A8/100+(A9/100-A8/100)/2)</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -591,8 +648,12 @@
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -603,8 +664,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -615,8 +680,12 @@
         <v>0</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -627,8 +696,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -639,8 +712,12 @@
         <v>0</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -651,8 +728,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -663,8 +744,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -676,7 +761,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -688,7 +773,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -700,7 +785,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
